--- a/data/leave_requests_sep_dec_25.xlsx
+++ b/data/leave_requests_sep_dec_25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xavierorcutt/Dropbox/chinle-primarycare-scheduler/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA29B950-FC14-9547-8488-3273A3579CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB16870D-752D-934C-B93E-EF952406DFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{CC048FE8-F2D5-8D4D-8BCE-E51C62D04B9D}"/>
+    <workbookView xWindow="2300" yWindow="2320" windowWidth="26840" windowHeight="15940" xr2:uid="{E96DF816-9702-5048-AB46-2D52D1369DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="113">
   <si>
     <t>provider</t>
   </si>
@@ -82,6 +83,18 @@
     <t>2025-11-07</t>
   </si>
   <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
     <t>2025-12-01</t>
   </si>
   <si>
@@ -100,18 +113,6 @@
     <t>2025-12-31</t>
   </si>
   <si>
-    <t>2025-11-24</t>
-  </si>
-  <si>
-    <t>2025-11-25</t>
-  </si>
-  <si>
-    <t>2025-11-26</t>
-  </si>
-  <si>
-    <t>2025-11-28</t>
-  </si>
-  <si>
     <t>Mcrae</t>
   </si>
   <si>
@@ -139,12 +140,12 @@
     <t>2025-10-24</t>
   </si>
   <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
     <t>2025-11-14</t>
   </si>
   <si>
-    <t>2025-11-10</t>
-  </si>
-  <si>
     <t>2025-11-17</t>
   </si>
   <si>
@@ -172,171 +173,171 @@
     <t>2026-01-02</t>
   </si>
   <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t>2025-10-20</t>
+  </si>
+  <si>
+    <t>2025-10-21</t>
+  </si>
+  <si>
+    <t>2025-10-22</t>
+  </si>
+  <si>
+    <t>2025-10-23</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-23</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-26</t>
+  </si>
+  <si>
+    <t>Tanay</t>
+  </si>
+  <si>
+    <t>2025-09-17</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
+  </si>
+  <si>
+    <t>2025-09-29</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-14</t>
+  </si>
+  <si>
+    <t>Wadlin</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>2025-09-24</t>
+  </si>
+  <si>
+    <t>2025-10-17</t>
+  </si>
+  <si>
+    <t>2025-10-27</t>
+  </si>
+  <si>
+    <t>2025-10-29</t>
+  </si>
+  <si>
+    <t>Bia</t>
+  </si>
+  <si>
+    <t>2025-09-18</t>
+  </si>
+  <si>
+    <t>2025-09-19</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>Gelman</t>
+  </si>
+  <si>
+    <t>Mullenix</t>
+  </si>
+  <si>
+    <t>Powell</t>
+  </si>
+  <si>
+    <t>2025-09-23</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>Salay</t>
+  </si>
+  <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>Shin</t>
+  </si>
+  <si>
+    <t>Suen</t>
+  </si>
+  <si>
+    <t>Bedele</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-16</t>
+  </si>
+  <si>
+    <t>Carrasco</t>
+  </si>
+  <si>
+    <t>2025-10-01</t>
+  </si>
+  <si>
+    <t>2025-10-02</t>
+  </si>
+  <si>
+    <t>Mador</t>
+  </si>
+  <si>
+    <t>2025-09-16</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>Menachof</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
     <t>2025-09-15</t>
   </si>
   <si>
-    <t>2025-09-16</t>
-  </si>
-  <si>
-    <t>2025-09-17</t>
-  </si>
-  <si>
-    <t>2025-09-18</t>
-  </si>
-  <si>
-    <t>2025-09-19</t>
-  </si>
-  <si>
-    <t>2025-09-22</t>
-  </si>
-  <si>
-    <t>2025-09-23</t>
-  </si>
-  <si>
-    <t>2025-09-24</t>
-  </si>
-  <si>
-    <t>2025-09-25</t>
-  </si>
-  <si>
-    <t>2025-09-26</t>
-  </si>
-  <si>
-    <t>2025-09-29</t>
-  </si>
-  <si>
-    <t>2025-09-30</t>
-  </si>
-  <si>
-    <t>2025-10-01</t>
-  </si>
-  <si>
-    <t>2025-10-02</t>
-  </si>
-  <si>
-    <t>2025-10-14</t>
-  </si>
-  <si>
-    <t>2025-10-15</t>
-  </si>
-  <si>
-    <t>2025-10-16</t>
-  </si>
-  <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
-    <t>2025-10-20</t>
-  </si>
-  <si>
-    <t>2025-10-21</t>
-  </si>
-  <si>
-    <t>2025-10-22</t>
-  </si>
-  <si>
-    <t>2025-10-23</t>
-  </si>
-  <si>
-    <t>2025-10-27</t>
-  </si>
-  <si>
-    <t>2025-10-28</t>
-  </si>
-  <si>
-    <t>2025-10-29</t>
-  </si>
-  <si>
-    <t>2025-10-30</t>
-  </si>
-  <si>
-    <t>Stewart</t>
-  </si>
-  <si>
-    <t>2025-11-04</t>
-  </si>
-  <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>2025-12-23</t>
-  </si>
-  <si>
-    <t>2025-12-24</t>
-  </si>
-  <si>
-    <t>2025-12-26</t>
-  </si>
-  <si>
-    <t>Tanay</t>
-  </si>
-  <si>
-    <t>Wadlin</t>
-  </si>
-  <si>
-    <t>Austin</t>
-  </si>
-  <si>
-    <t>Bia</t>
-  </si>
-  <si>
-    <t>2025-12-09</t>
-  </si>
-  <si>
-    <t>2025-12-10</t>
-  </si>
-  <si>
-    <t>2025-12-11</t>
-  </si>
-  <si>
-    <t>Gelman</t>
-  </si>
-  <si>
-    <t>Mullenix</t>
-  </si>
-  <si>
-    <t>Powell</t>
-  </si>
-  <si>
-    <t>2025-11-06</t>
-  </si>
-  <si>
-    <t>Salay</t>
-  </si>
-  <si>
-    <t>Shin</t>
-  </si>
-  <si>
-    <t>Suen</t>
-  </si>
-  <si>
-    <t>Bedele</t>
-  </si>
-  <si>
-    <t>Carrasco</t>
-  </si>
-  <si>
-    <t>Mador</t>
-  </si>
-  <si>
-    <t>2025-12-03</t>
-  </si>
-  <si>
-    <t>2025-12-04</t>
-  </si>
-  <si>
-    <t>2025-12-05</t>
-  </si>
-  <si>
-    <t>Menachof</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
     <t>2025-12-19</t>
   </si>
   <si>
@@ -356,6 +357,24 @@
   </si>
   <si>
     <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>Snyder</t>
+  </si>
+  <si>
+    <t>2025-09-01</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>Rafferty</t>
+  </si>
+  <si>
+    <t>2025-10-13</t>
+  </si>
+  <si>
+    <t>Mcnett</t>
   </si>
 </sst>
 </file>
@@ -735,11 +754,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04384D58-3134-9F41-A92B-264A300AE583}">
-  <dimension ref="A1:B1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127844F7-B09E-834B-A475-784928610656}">
+  <dimension ref="A1:B431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" zoomScale="179" workbookViewId="0">
-      <selection activeCell="A370" sqref="A370"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -861,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -869,7 +888,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -877,7 +896,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -885,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -893,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -901,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -909,7 +928,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -917,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -925,7 +944,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -933,7 +952,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -941,7 +960,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -949,7 +968,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -957,7 +976,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1029,7 +1048,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1037,7 +1056,7 @@
         <v>26</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1085,7 +1104,7 @@
         <v>26</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1093,7 +1112,7 @@
         <v>26</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1101,7 +1120,7 @@
         <v>26</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1109,7 +1128,7 @@
         <v>26</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1141,7 +1160,7 @@
         <v>26</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1149,7 +1168,7 @@
         <v>26</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1162,7 +1181,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>7</v>
@@ -1170,7 +1189,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>8</v>
@@ -1178,7 +1197,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>9</v>
@@ -1186,7 +1205,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>10</v>
@@ -1194,7 +1213,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>11</v>
@@ -1202,39 +1221,39 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>13</v>
@@ -1242,23 +1261,23 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>14</v>
@@ -1266,55 +1285,55 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>3</v>
@@ -1322,7 +1341,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>29</v>
@@ -1330,39 +1349,39 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>11</v>
@@ -1370,15 +1389,15 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>14</v>
@@ -1386,15 +1405,15 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>41</v>
@@ -1402,7 +1421,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>42</v>
@@ -1410,87 +1429,87 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>33</v>
@@ -1498,15 +1517,15 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>40</v>
@@ -1514,39 +1533,39 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>43</v>
@@ -1554,23 +1573,23 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>44</v>
@@ -1578,7 +1597,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>27</v>
@@ -1586,7 +1605,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>31</v>
@@ -1594,23 +1613,23 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>32</v>
@@ -1618,7 +1637,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>7</v>
@@ -1626,23 +1645,23 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>33</v>
@@ -1650,23 +1669,23 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>12</v>
@@ -1674,15 +1693,15 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>36</v>
@@ -1690,7 +1709,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>37</v>
@@ -1698,7 +1717,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>38</v>
@@ -1706,7 +1725,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>39</v>
@@ -1714,7 +1733,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>40</v>
@@ -1722,39 +1741,39 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>41</v>
@@ -1762,7 +1781,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>42</v>
@@ -1770,7 +1789,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>43</v>
@@ -1778,23 +1797,23 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>44</v>
@@ -1802,39 +1821,39 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>10</v>
@@ -1842,7 +1861,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>11</v>
@@ -1850,31 +1869,31 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>12</v>
@@ -1882,7 +1901,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>13</v>
@@ -1890,55 +1909,55 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>41</v>
@@ -1946,39 +1965,39 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>3</v>
@@ -1986,7 +2005,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>4</v>
@@ -1994,7 +2013,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>5</v>
@@ -2002,7 +2021,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>6</v>
@@ -2010,7 +2029,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>7</v>
@@ -2018,7 +2037,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>8</v>
@@ -2026,7 +2045,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>9</v>
@@ -2034,7 +2053,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>10</v>
@@ -2042,7 +2061,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>11</v>
@@ -2050,7 +2069,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>13</v>
@@ -2058,7 +2077,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>14</v>
@@ -2066,79 +2085,79 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>32</v>
@@ -2146,7 +2165,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>7</v>
@@ -2154,7 +2173,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>8</v>
@@ -2162,7 +2181,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>9</v>
@@ -2170,7 +2189,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>10</v>
@@ -2178,7 +2197,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>11</v>
@@ -2186,47 +2205,47 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>43</v>
@@ -2234,63 +2253,63 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>7</v>
@@ -2298,7 +2317,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>8</v>
@@ -2306,7 +2325,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>9</v>
@@ -2314,7 +2333,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>10</v>
@@ -2322,7 +2341,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>11</v>
@@ -2330,15 +2349,15 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>14</v>
@@ -2346,47 +2365,47 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>3</v>
@@ -2394,7 +2413,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>4</v>
@@ -2402,7 +2421,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>5</v>
@@ -2410,7 +2429,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>6</v>
@@ -2418,39 +2437,39 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>12</v>
@@ -2458,39 +2477,39 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>43</v>
@@ -2498,7 +2517,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>5</v>
@@ -2506,7 +2525,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>6</v>
@@ -2514,7 +2533,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>27</v>
@@ -2522,7 +2541,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>28</v>
@@ -2530,39 +2549,39 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>12</v>
@@ -2570,7 +2589,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>36</v>
@@ -2578,23 +2597,23 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>43</v>
@@ -2602,23 +2621,23 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>44</v>
@@ -2626,103 +2645,103 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>3</v>
@@ -2730,7 +2749,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>6</v>
@@ -2738,55 +2757,55 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>39</v>
@@ -2794,7 +2813,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>40</v>
@@ -2802,39 +2821,39 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>42</v>
@@ -2842,23 +2861,23 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>44</v>
@@ -2866,7 +2885,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>28</v>
@@ -2874,31 +2893,31 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>7</v>
@@ -2906,7 +2925,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>8</v>
@@ -2914,7 +2933,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>9</v>
@@ -2922,7 +2941,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>10</v>
@@ -2930,7 +2949,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>11</v>
@@ -2938,47 +2957,47 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>14</v>
@@ -2986,15 +3005,15 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>37</v>
@@ -3002,7 +3021,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>38</v>
@@ -3010,79 +3029,79 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
+        <v>92</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>43</v>
@@ -3090,79 +3109,79 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>11</v>
@@ -3170,15 +3189,15 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>33</v>
@@ -3186,7 +3205,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>36</v>
@@ -3194,7 +3213,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>37</v>
@@ -3202,7 +3221,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>38</v>
@@ -3210,7 +3229,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>39</v>
@@ -3218,7 +3237,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>40</v>
@@ -3226,39 +3245,39 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>43</v>
@@ -3266,7 +3285,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>31</v>
@@ -3274,31 +3293,31 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
+        <v>98</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>10</v>
@@ -3306,7 +3325,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>11</v>
@@ -3314,31 +3333,31 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>33</v>
@@ -3346,39 +3365,39 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>12</v>
@@ -3386,23 +3405,23 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>100</v>
@@ -3410,34 +3429,34 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -3445,7 +3464,7 @@
         <v>101</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -3453,7 +3472,7 @@
         <v>101</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -3461,7 +3480,7 @@
         <v>101</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -3469,7 +3488,7 @@
         <v>101</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -3477,7 +3496,7 @@
         <v>101</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -3485,7 +3504,7 @@
         <v>101</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -3517,7 +3536,7 @@
         <v>101</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -3533,7 +3552,7 @@
         <v>101</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -3541,7 +3560,7 @@
         <v>101</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -3549,7 +3568,7 @@
         <v>101</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -3557,7 +3576,7 @@
         <v>101</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -3581,7 +3600,7 @@
         <v>104</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -3589,7 +3608,7 @@
         <v>104</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -3597,7 +3616,7 @@
         <v>104</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -3605,7 +3624,7 @@
         <v>104</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -3613,7 +3632,7 @@
         <v>104</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -3621,7 +3640,7 @@
         <v>104</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -3629,7 +3648,7 @@
         <v>104</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -3637,7 +3656,7 @@
         <v>104</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -3645,7 +3664,7 @@
         <v>104</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -3685,7 +3704,7 @@
         <v>104</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -3696,8 +3715,501 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1048576" s="1"/>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>107</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>107</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>107</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>107</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>107</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>107</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>107</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>107</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>107</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>107</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>107</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>107</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>107</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>107</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>107</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>107</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>107</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>107</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>107</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>107</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>107</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>107</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>107</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>107</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>107</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>107</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>107</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>107</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>107</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>107</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>107</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>107</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>110</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>110</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>110</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>110</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>110</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>110</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>110</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>110</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>110</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>110</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>110</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>110</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>110</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>110</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>110</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>110</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>110</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>110</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>110</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>110</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>110</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>110</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>112</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>112</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>112</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>112</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>112</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>112</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>112</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>112</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
